--- a/导表工具/T-突破系统配置表--删除.xlsx
+++ b/导表工具/T-突破系统配置表--删除.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="8055" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="突破属性配置" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>导出类型</t>
   </si>
@@ -181,10 +181,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,26 +230,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -259,8 +243,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -275,22 +266,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,36 +335,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,7 +358,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,20 +380,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -420,13 +424,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,19 +472,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,13 +526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,43 +556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,55 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,6 +672,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -679,6 +692,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,38 +746,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,175 +769,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5473,10 +5477,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="5"/>
@@ -5486,110 +5490,124 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>26</v>
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200012</v>
+      </c>
+      <c r="D8" s="14">
+        <v>10</v>
+      </c>
+      <c r="E8" s="16">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>200012</v>
       </c>
-      <c r="D9" s="14">
-        <v>10</v>
+      <c r="D9" s="1">
+        <v>15</v>
       </c>
       <c r="E9" s="16">
         <v>25</v>
@@ -5597,13 +5615,13 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>200012</v>
       </c>
       <c r="D10" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="16">
         <v>25</v>
@@ -5611,13 +5629,13 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>200012</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11" s="16">
         <v>25</v>
@@ -5625,13 +5643,13 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>200012</v>
       </c>
       <c r="D12" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12" s="16">
         <v>25</v>
@@ -5639,13 +5657,13 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>200012</v>
       </c>
       <c r="D13" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16">
         <v>25</v>
@@ -5653,13 +5671,13 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>200012</v>
       </c>
       <c r="D14" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E14" s="16">
         <v>25</v>
@@ -5667,13 +5685,13 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>200012</v>
       </c>
       <c r="D15" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E15" s="16">
         <v>25</v>
@@ -5681,13 +5699,13 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>200012</v>
       </c>
       <c r="D16" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E16" s="16">
         <v>25</v>
@@ -5695,13 +5713,13 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>200012</v>
       </c>
       <c r="D17" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E17" s="16">
         <v>25</v>
@@ -5709,13 +5727,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <v>200012</v>
       </c>
       <c r="D18" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E18" s="16">
         <v>25</v>
@@ -5723,13 +5741,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>200012</v>
       </c>
       <c r="D19" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E19" s="16">
         <v>25</v>
@@ -5737,13 +5755,13 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
         <v>200012</v>
       </c>
       <c r="D20" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E20" s="16">
         <v>25</v>
@@ -5751,13 +5769,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
         <v>200012</v>
       </c>
       <c r="D21" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E21" s="16">
         <v>25</v>
@@ -5765,13 +5783,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
         <v>200012</v>
       </c>
       <c r="D22" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E22" s="16">
         <v>25</v>
@@ -5779,13 +5797,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
         <v>200012</v>
       </c>
       <c r="D23" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E23" s="16">
         <v>25</v>
@@ -5793,13 +5811,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>200012</v>
       </c>
       <c r="D24" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E24" s="16">
         <v>25</v>
@@ -5807,13 +5825,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
         <v>200012</v>
       </c>
       <c r="D25" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E25" s="16">
         <v>25</v>
@@ -5821,13 +5839,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
         <v>200012</v>
       </c>
       <c r="D26" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E26" s="16">
         <v>25</v>
@@ -5835,13 +5853,13 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>200012</v>
       </c>
       <c r="D27" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E27" s="16">
         <v>25</v>
@@ -5849,13 +5867,13 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1">
         <v>200012</v>
       </c>
       <c r="D28" s="1">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E28" s="16">
         <v>25</v>
@@ -5863,13 +5881,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1">
         <v>200012</v>
       </c>
       <c r="D29" s="1">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E29" s="16">
         <v>25</v>
@@ -5877,13 +5895,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>200012</v>
       </c>
       <c r="D30" s="1">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E30" s="16">
         <v>25</v>
@@ -5891,13 +5909,13 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <v>200012</v>
       </c>
       <c r="D31" s="1">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E31" s="16">
         <v>25</v>
@@ -5905,13 +5923,13 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>200012</v>
       </c>
       <c r="D32" s="1">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E32" s="16">
         <v>25</v>
@@ -5919,13 +5937,13 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <v>200012</v>
       </c>
       <c r="D33" s="1">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E33" s="16">
         <v>25</v>
@@ -5933,13 +5951,13 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <v>200012</v>
       </c>
       <c r="D34" s="1">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E34" s="16">
         <v>25</v>
@@ -5947,13 +5965,13 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <v>200012</v>
       </c>
       <c r="D35" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E35" s="16">
         <v>25</v>
@@ -5961,13 +5979,13 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <v>200012</v>
       </c>
       <c r="D36" s="1">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="E36" s="16">
         <v>25</v>
@@ -5975,13 +5993,13 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>200012</v>
       </c>
       <c r="D37" s="1">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="E37" s="16">
         <v>25</v>
@@ -5989,13 +6007,13 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <v>200012</v>
       </c>
       <c r="D38" s="1">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="E38" s="16">
         <v>25</v>
@@ -6003,13 +6021,13 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
         <v>200012</v>
       </c>
       <c r="D39" s="1">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="E39" s="16">
         <v>25</v>
@@ -6017,13 +6035,13 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1">
         <v>200012</v>
       </c>
       <c r="D40" s="1">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="E40" s="16">
         <v>25</v>
@@ -6031,13 +6049,13 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
         <v>200012</v>
       </c>
       <c r="D41" s="1">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="E41" s="16">
         <v>25</v>
@@ -6045,13 +6063,13 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
         <v>200012</v>
       </c>
       <c r="D42" s="1">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="E42" s="16">
         <v>25</v>
@@ -6059,29 +6077,15 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1">
         <v>200012</v>
       </c>
       <c r="D43" s="1">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="E43" s="16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="1">
-        <v>36</v>
-      </c>
-      <c r="C44" s="1">
-        <v>200012</v>
-      </c>
-      <c r="D44" s="1">
-        <v>560</v>
-      </c>
-      <c r="E44" s="16">
         <v>25</v>
       </c>
     </row>
